--- a/src/assets/utilities/Scale count.xlsx
+++ b/src/assets/utilities/Scale count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\54_timer\src\assets\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBFCE270-D9E6-4251-AB3B-C7F3BA814EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD19147E-EE5E-4BBC-968C-44C23002BAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{0EC2F952-E1F9-4254-9841-7914DA961884}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="B2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
